--- a/documentation/encoder_values.xlsx
+++ b/documentation/encoder_values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaellevy/Documents/Michigan/Fall 2020/ROB550/MBOT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaellevy/Documents/Michigan/Fall 2020/ROB550/MBOT/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76304B9A-BF92-D24F-866B-D8D50C9CADAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07CD70-0B7A-CF4A-9B1D-85FDA904FF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37800" yWindow="-11700" windowWidth="37800" windowHeight="33380" xr2:uid="{DBD340B7-41CD-9440-8A03-8587B7187E28}"/>
   </bookViews>
@@ -33,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Rotation Number (LEFT) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation Number (RIGHT) </t>
-  </si>
-  <si>
-    <t>Encoder Value</t>
-  </si>
-  <si>
-    <t>Encoder Value2</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LEFT AVERAGE</t>
   </si>
@@ -56,10 +41,22 @@
     <t>RIGHT AVERAGE</t>
   </si>
   <si>
-    <t>Rotation2</t>
+    <t>ROTATION NUMBER</t>
   </si>
   <si>
-    <t>TOTAL AVERAGE</t>
+    <t>LEFT ENCODER VALUE</t>
+  </si>
+  <si>
+    <t>RIGHT ENCODER VALUE</t>
+  </si>
+  <si>
+    <t>LEFT ONE ROTATION</t>
+  </si>
+  <si>
+    <t>RIGHT ONE ROTATION</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -136,10 +133,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -152,17 +149,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -175,16 +166,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -219,9 +201,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -277,18 +256,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7536AFFD-4F56-1346-8ADA-40B6B2A08C01}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:F11" xr:uid="{752AB426-07F0-5941-9FEB-F64D805FB608}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A2B50F53-00B6-C648-8015-9F6A74C14EFF}" name="Rotation Number (LEFT) " dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{671BB6B5-94D1-2B41-BFBA-B22C1AE17614}" name="Encoder Value" totalsRowLabel="LEFT AVERAGE" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{54870CF6-12D6-2E45-A775-7B42F51FCAB1}" name="Rotation" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
-      <totalsRowFormula>AVERAGE(Table1[Rotation])</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7536AFFD-4F56-1346-8ADA-40B6B2A08C01}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E11" xr:uid="{752AB426-07F0-5941-9FEB-F64D805FB608}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A2B50F53-00B6-C648-8015-9F6A74C14EFF}" name="ROTATION NUMBER" totalsRowLabel="-" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{671BB6B5-94D1-2B41-BFBA-B22C1AE17614}" name="LEFT ENCODER VALUE" totalsRowLabel="LEFT AVERAGE" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{54870CF6-12D6-2E45-A775-7B42F51FCAB1}" name="LEFT ONE ROTATION" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2">
+      <totalsRowFormula>AVERAGE(Table1[LEFT ONE ROTATION])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{53EBE81A-A94A-5443-B6C5-58C4FF97413F}" name="Rotation Number (RIGHT) " dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F4687C42-A86D-5647-A56E-EA5FC789BE70}" name="Encoder Value2" totalsRowLabel="RIGHT AVERAGE" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{02B6F27F-A7BB-9C4F-92BC-5C7D535CD0A8}" name="Rotation2" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
-      <totalsRowFormula>AVERAGE(Table1[Rotation2])</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{F4687C42-A86D-5647-A56E-EA5FC789BE70}" name="RIGHT ENCODER VALUE" totalsRowLabel="RIGHT AVERAGE" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02B6F27F-A7BB-9C4F-92BC-5C7D535CD0A8}" name="RIGHT ONE ROTATION" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
+      <totalsRowFormula>AVERAGE(Table1[RIGHT ONE ROTATION])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -592,43 +570,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC061AA1-C019-D345-8E2C-AD7DC3AA52B2}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -636,21 +611,18 @@
         <v>-1542</v>
       </c>
       <c r="C2" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]])</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]])</f>
         <v>1542</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>-1561</v>
       </c>
       <c r="E2" s="2">
-        <v>-1561</v>
-      </c>
-      <c r="F2" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]])</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]])</f>
         <v>1561</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -658,21 +630,18 @@
         <v>-3108</v>
       </c>
       <c r="C3" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B2)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B2)</f>
         <v>1566</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>-3136</v>
       </c>
       <c r="E3" s="2">
-        <v>-3136</v>
-      </c>
-      <c r="F3" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E2)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D2)</f>
         <v>1575</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -680,21 +649,18 @@
         <v>-4672</v>
       </c>
       <c r="C4" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B3)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B3)</f>
         <v>1564</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>-4702</v>
       </c>
       <c r="E4" s="2">
-        <v>-4702</v>
-      </c>
-      <c r="F4" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E3)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D3)</f>
         <v>1566</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -702,21 +668,18 @@
         <v>-6234</v>
       </c>
       <c r="C5" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B4)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B4)</f>
         <v>1562</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>-6256</v>
       </c>
       <c r="E5" s="2">
-        <v>-6256</v>
-      </c>
-      <c r="F5" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E4)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D4)</f>
         <v>1554</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -724,21 +687,18 @@
         <v>-7792</v>
       </c>
       <c r="C6" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B5)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B5)</f>
         <v>1558</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>-7820</v>
       </c>
       <c r="E6" s="2">
-        <v>-7820</v>
-      </c>
-      <c r="F6" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E5)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D5)</f>
         <v>1564</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -746,21 +706,18 @@
         <v>-9374</v>
       </c>
       <c r="C7" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B6)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B6)</f>
         <v>1582</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>-9375</v>
       </c>
       <c r="E7" s="2">
-        <v>-9375</v>
-      </c>
-      <c r="F7" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E6)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D6)</f>
         <v>1555</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -768,21 +725,18 @@
         <v>-10920</v>
       </c>
       <c r="C8" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B7)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B7)</f>
         <v>1546</v>
       </c>
       <c r="D8" s="2">
-        <v>7</v>
+        <v>-10947</v>
       </c>
       <c r="E8" s="2">
-        <v>-10947</v>
-      </c>
-      <c r="F8" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E7)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D7)</f>
         <v>1572</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -790,21 +744,18 @@
         <v>-12486</v>
       </c>
       <c r="C9" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B8)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B8)</f>
         <v>1566</v>
       </c>
       <c r="D9" s="2">
-        <v>8</v>
+        <v>-12496</v>
       </c>
       <c r="E9" s="2">
-        <v>-12496</v>
-      </c>
-      <c r="F9" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E8)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D8)</f>
         <v>1549</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -812,21 +763,18 @@
         <v>-14040</v>
       </c>
       <c r="C10" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B9)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B9)</f>
         <v>1554</v>
       </c>
       <c r="D10" s="2">
-        <v>9</v>
+        <v>-14056</v>
       </c>
       <c r="E10" s="2">
-        <v>-14056</v>
-      </c>
-      <c r="F10" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E9)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D9)</f>
         <v>1560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -834,44 +782,38 @@
         <v>-15614</v>
       </c>
       <c r="C11" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value]]-B10)</f>
+        <f>ABS(Table1[[#This Row],[LEFT ENCODER VALUE]]-B10)</f>
         <v>1574</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>-15635</v>
       </c>
       <c r="E11" s="2">
-        <v>-15635</v>
-      </c>
-      <c r="F11" s="2">
-        <f>ABS(Table1[[#This Row],[Encoder Value2]]-E10)</f>
+        <f>ABS(Table1[[#This Row],[RIGHT ENCODER VALUE]]-D10)</f>
         <v>1579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <f>AVERAGE(Table1[Rotation])</f>
+        <f>AVERAGE(Table1[LEFT ONE ROTATION])</f>
         <v>1561.4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <f>AVERAGE(Table1[Rotation2])</f>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f>AVERAGE(Table1[RIGHT ONE ROTATION])</f>
         <v>1563.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <f>AVERAGE(C2:C11,F2:F11)</f>
-        <v>1562.45</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
